--- a/predict/2023/saved/week10.xlsx
+++ b/predict/2023/saved/week10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="359">
   <si>
     <t>Index</t>
   </si>
@@ -82,6 +82,9 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Toledo</t>
   </si>
   <si>
@@ -91,672 +94,669 @@
     <t>100.0</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>80.6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>85.1</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>98.4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>77.4</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>SE Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [SE Louisiana], Calculate() - [DIVISION 1 FBS] team playing [?] team, Virginia wins</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>64.1</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>82.6</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>83.5</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>80.6</t>
-  </si>
-  <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>79.9</t>
-  </si>
-  <si>
-    <t>2023-11-04</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>85.1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>14.9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>98.4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MICH</t>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>63.1</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>USC</t>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>60.6</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>93.7</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>53.4</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>JVille St</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Campbell], Calculate() - [?] team playing [DIVISION 1 FBS] team, North Carolina wins</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Sam Houston</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Kennesaw St], Calculate() - [?] team playing [DIVISION 1 FBS] team, Sam Houston wins</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Florida A&amp;M], Calculate() - [?] team playing [DIVISION 1 FBS] team, UAB wins</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>UL</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>77.4</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>SE Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [SE Louisiana], Calculate() - [DIVISION 1 FBS] team playing [?] team, Virginia wins</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>64.1</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TENN</t>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MINN</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>60.6</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>East Carolina</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>88.1</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>93.7</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>53.4</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>JVille St</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Campbell], Calculate() - [?] team playing [DIVISION 1 FBS] team, North Carolina wins</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Kennesaw St</t>
-  </si>
-  <si>
-    <t>Sam Houston</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Kennesaw St], Calculate() - [?] team playing [DIVISION 1 FBS] team, Sam Houston wins</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Florida A&amp;M], Calculate() - [?] team playing [DIVISION 1 FBS] team, UAB wins</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -922,12 +922,6 @@
     <t>53</t>
   </si>
   <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -1022,12 +1016,6 @@
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>86.8</t>
   </si>
   <si>
     <t>61</t>
@@ -1527,92 +1515,92 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>23.397</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>12.697</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>13.697</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1667,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>20.997</v>
@@ -1679,683 +1667,683 @@
         <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>11.297</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <v>-0.303</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
         <v>72</v>
       </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>10.997</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>-13.903</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>19.697</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <v>38.997</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G14">
         <v>-4.703</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G15">
         <v>35.697</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>36.197</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>19.697</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>11.597</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G19">
         <v>7.897</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
       </c>
       <c r="G20">
         <v>10.197</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
         <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
       </c>
       <c r="G21">
         <v>-2.703</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="G23">
         <v>-4.903</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G24">
         <v>-25.903</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G25">
         <v>43.897</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <v>20.997</v>
       </c>
       <c r="H26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
@@ -2367,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>24.597</v>
@@ -2379,310 +2367,310 @@
         <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>3.397</v>
       </c>
       <c r="H28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K28" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
       </c>
       <c r="G29">
         <v>-2.303</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G30">
         <v>15.497</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" t="s">
-        <v>108</v>
       </c>
       <c r="G31">
         <v>17.597</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>-2.003</v>
       </c>
       <c r="H32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>40.997</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G34">
         <v>17.897</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
         <v>215</v>
@@ -2691,10 +2679,10 @@
         <v>216</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K36" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
         <v>217</v>
@@ -2702,10 +2690,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>218</v>
@@ -2717,22 +2705,22 @@
         <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G37">
         <v>-6.703</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J37" t="s">
         <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2740,7 +2728,7 @@
         <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>223</v>
@@ -2752,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>-7.103</v>
@@ -2767,190 +2755,190 @@
         <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
         <v>227</v>
       </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
         <v>228</v>
       </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
         <v>229</v>
-      </c>
-      <c r="I39" t="s">
-        <v>229</v>
-      </c>
-      <c r="J39" t="s">
-        <v>151</v>
-      </c>
-      <c r="K39" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
         <v>231</v>
       </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>232</v>
-      </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
         <v>220</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G40">
         <v>-6.303</v>
       </c>
       <c r="H40" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" t="s">
         <v>233</v>
-      </c>
-      <c r="I40" t="s">
-        <v>234</v>
       </c>
       <c r="J40" t="s">
         <v>221</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
         <v>235</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>236</v>
       </c>
-      <c r="D41" t="s">
-        <v>237</v>
-      </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G41">
         <v>13.297</v>
       </c>
       <c r="H41" t="s">
+        <v>237</v>
+      </c>
+      <c r="I41" t="s">
         <v>238</v>
       </c>
-      <c r="I41" t="s">
-        <v>239</v>
-      </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
         <v>240</v>
       </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>241</v>
-      </c>
-      <c r="D42" t="s">
-        <v>242</v>
-      </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="G42">
         <v>10.197</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" t="s">
         <v>243</v>
       </c>
-      <c r="D43" t="s">
-        <v>244</v>
-      </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2.697</v>
       </c>
       <c r="H43" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43" t="s">
         <v>245</v>
       </c>
-      <c r="I43" t="s">
-        <v>246</v>
-      </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>247</v>
@@ -2962,7 +2950,7 @@
         <v>249</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>12.197</v>
@@ -2977,7 +2965,7 @@
         <v>252</v>
       </c>
       <c r="K44" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2985,19 +2973,19 @@
         <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
         <v>255</v>
@@ -3006,10 +2994,10 @@
         <v>256</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
         <v>257</v>
@@ -3020,7 +3008,7 @@
         <v>258</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>259</v>
@@ -3032,7 +3020,7 @@
         <v>261</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G46">
         <v>8.597</v>
@@ -3047,7 +3035,7 @@
         <v>264</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3055,7 +3043,7 @@
         <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>266</v>
@@ -3067,7 +3055,7 @@
         <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G47">
         <v>-5.803</v>
@@ -3082,7 +3070,7 @@
         <v>270</v>
       </c>
       <c r="K47" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3090,7 +3078,7 @@
         <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>272</v>
@@ -3102,22 +3090,22 @@
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>33.997</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K48" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3125,7 +3113,7 @@
         <v>274</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>275</v>
@@ -3137,7 +3125,7 @@
         <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="G49">
         <v>0.797</v>
@@ -3152,7 +3140,7 @@
         <v>280</v>
       </c>
       <c r="K49" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3160,7 +3148,7 @@
         <v>281</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>282</v>
@@ -3169,10 +3157,10 @@
         <v>283</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="G50">
         <v>-12.703</v>
@@ -3184,10 +3172,10 @@
         <v>285</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3195,7 +3183,7 @@
         <v>286</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>287</v>
@@ -3204,10 +3192,10 @@
         <v>288</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G51">
         <v>13.997</v>
@@ -3219,10 +3207,10 @@
         <v>290</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3230,7 +3218,7 @@
         <v>291</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>292</v>
@@ -3239,22 +3227,22 @@
         <v>293</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
         <v>294</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
         <v>295</v>
@@ -3265,7 +3253,7 @@
         <v>296</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>297</v>
@@ -3274,10 +3262,10 @@
         <v>298</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>2.697</v>
@@ -3289,10 +3277,10 @@
         <v>300</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K53" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3300,454 +3288,454 @@
         <v>301</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="F54" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="G54">
-        <v>-35.703</v>
+        <v>-1.003</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="I54" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="G55">
         <v>13.897</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="G56">
         <v>4.397</v>
       </c>
       <c r="H56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K56" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" t="s">
         <v>311</v>
       </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>312</v>
       </c>
-      <c r="D57" t="s">
-        <v>313</v>
-      </c>
-      <c r="E57" t="s">
-        <v>314</v>
-      </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>18.497</v>
       </c>
       <c r="H57" t="s">
+        <v>313</v>
+      </c>
+      <c r="I57" t="s">
+        <v>314</v>
+      </c>
+      <c r="J57" t="s">
         <v>315</v>
       </c>
-      <c r="I57" t="s">
-        <v>316</v>
-      </c>
-      <c r="J57" t="s">
-        <v>317</v>
-      </c>
       <c r="K57" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
+        <v>316</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" t="s">
         <v>318</v>
       </c>
-      <c r="B58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" t="s">
-        <v>319</v>
-      </c>
-      <c r="D58" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" t="s">
-        <v>320</v>
-      </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="G58">
         <v>-9.003</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="G59">
         <v>19.897</v>
       </c>
       <c r="H59" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
         <v>326</v>
       </c>
-      <c r="B60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>327</v>
       </c>
-      <c r="D60" t="s">
-        <v>328</v>
-      </c>
-      <c r="E60" t="s">
-        <v>329</v>
-      </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G60">
         <v>15.897</v>
       </c>
       <c r="H60" t="s">
+        <v>328</v>
+      </c>
+      <c r="I60" t="s">
+        <v>329</v>
+      </c>
+      <c r="J60" t="s">
         <v>330</v>
       </c>
-      <c r="I60" t="s">
-        <v>331</v>
-      </c>
-      <c r="J60" t="s">
-        <v>332</v>
-      </c>
       <c r="K60" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" t="s">
         <v>333</v>
       </c>
-      <c r="B61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" t="s">
-        <v>334</v>
-      </c>
-      <c r="D61" t="s">
-        <v>335</v>
-      </c>
       <c r="E61" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G61">
-        <v>14.597</v>
+        <v>22.297</v>
       </c>
       <c r="H61" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D62" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="G62">
         <v>-2.303</v>
       </c>
       <c r="H62" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I62" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K62" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" t="s">
+        <v>340</v>
+      </c>
+      <c r="E63" t="s">
+        <v>341</v>
+      </c>
+      <c r="F63" t="s">
         <v>80</v>
-      </c>
-      <c r="C63" t="s">
-        <v>343</v>
-      </c>
-      <c r="D63" t="s">
-        <v>344</v>
-      </c>
-      <c r="E63" t="s">
-        <v>345</v>
-      </c>
-      <c r="F63" t="s">
-        <v>109</v>
       </c>
       <c r="G63">
         <v>16.297</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I63" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J63" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K63" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D64" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E64" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="G64">
         <v>1.697</v>
       </c>
       <c r="H64" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J64" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D65" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E65" t="s">
         <v>280</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="G65">
         <v>-0.903</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I65" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J65" t="s">
         <v>277</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="G66">
         <v>-2.303</v>
       </c>
       <c r="H66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I66" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
